--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -710,13 +710,13 @@
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4.33</v>
@@ -734,13 +734,13 @@
         <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>3.25</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -855,22 +855,22 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -878,10 +878,10 @@
         <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
         <v>2.75</v>
@@ -996,13 +996,13 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1019,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>2.5</v>
@@ -1131,22 +1131,22 @@
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1164,10 +1164,10 @@
         <v>5.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
         <v>2.25</v>
@@ -1230,10 +1230,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
@@ -1280,19 +1280,19 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
         <v>2.25</v>
@@ -1313,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
         <v>2.2</v>
@@ -1429,19 +1429,19 @@
         <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>2.5</v>
@@ -1462,19 +1462,19 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1489,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1504,7 +1504,7 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -1528,10 +1528,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -2265,22 +2265,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2325,13 +2325,13 @@
         <v>2.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>41</v>
@@ -2358,16 +2358,16 @@
         <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN13" t="n">
         <v>8.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2438,10 +2438,10 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
         <v>2.4</v>
@@ -2525,10 +2525,10 @@
         <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2611,10 +2611,10 @@
         <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y15" t="n">
         <v>2.38</v>
@@ -2742,10 +2742,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2756,7 +2756,7 @@
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>3</v>
@@ -2897,10 +2897,10 @@
         <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y17" t="n">
         <v>1.91</v>
@@ -3024,10 +3024,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3038,7 +3038,7 @@
         <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
         <v>2.75</v>
@@ -3622,44 +3622,44 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.02</v>
       </c>
-      <c r="J24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.07</v>
-      </c>
       <c r="L24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
         <v>1.42</v>
@@ -3668,61 +3668,61 @@
         <v>2.45</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AA24" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE24" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK24" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN24" t="n">
         <v>8.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3903,43 +3903,105 @@
           <t>Auda</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.07</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.46</v>
+      </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>45</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
     </row>
@@ -3993,22 +4055,22 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="n">
         <v>1.95</v>
@@ -4017,10 +4079,10 @@
         <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
         <v>1.33</v>
@@ -4119,45 +4181,119 @@
           <t>Raja Casablanca</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.53</v>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4190,45 +4326,119 @@
           <t>Difaa El Jadidi</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4262,7 +4472,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
@@ -4274,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -4292,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R30" t="n">
         <v>2.7</v>
@@ -4312,7 +4522,7 @@
         <v>3.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z30" t="n">
         <v>2.25</v>
@@ -4403,7 +4613,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H31" t="n">
         <v>4.33</v>
@@ -4453,7 +4663,7 @@
         <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z31" t="n">
         <v>2</v>
@@ -4544,19 +4754,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L32" t="n">
         <v>3.6</v>
@@ -4574,10 +4784,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S32" t="n">
         <v>1.83</v>
@@ -4586,28 +4796,28 @@
         <v>2.03</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>9</v>
@@ -4689,13 +4899,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4704,7 +4914,7 @@
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -4739,7 +4949,7 @@
         <v>3.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z33" t="n">
         <v>2.25</v>
@@ -4830,7 +5040,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -4842,7 +5052,7 @@
         <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L34" t="n">
         <v>3.4</v>
@@ -4883,7 +5093,7 @@
         <v>2.2</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -5008,7 +5218,7 @@
         <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5120,19 +5330,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
         <v>6.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
         <v>6</v>
@@ -5141,7 +5351,7 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>1.22</v>
@@ -5150,16 +5360,16 @@
         <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R36" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S36" t="n">
         <v>2.28</v>
       </c>
       <c r="T36" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
         <v>2.75</v>
@@ -5299,16 +5509,16 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S37" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T37" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U37" t="n">
         <v>3</v>
@@ -5317,10 +5527,10 @@
         <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
         <v>3.25</v>
@@ -5332,19 +5542,19 @@
         <v>5.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
@@ -5362,7 +5572,7 @@
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="n">
         <v>51</v>
@@ -5380,10 +5590,10 @@
         <v>101</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AS37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="38">
@@ -5462,7 +5672,7 @@
         <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X38" t="n">
         <v>3.25</v>
@@ -5583,16 +5793,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.9</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -5603,7 +5813,7 @@
         <v>1.33</v>
       </c>
       <c r="W39" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
         <v>2.75</v>
@@ -5744,10 +5954,10 @@
         <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X40" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y40" t="n">
         <v>1.95</v>
@@ -5885,7 +6095,7 @@
         <v>1.17</v>
       </c>
       <c r="W41" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X41" t="n">
         <v>2.25</v>
@@ -6185,16 +6395,16 @@
         <v>3.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA43" t="n">
         <v>9</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
@@ -6435,10 +6645,10 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>1.33</v>
@@ -6447,18 +6657,18 @@
         <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W45" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
@@ -704,7 +704,7 @@
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
@@ -752,7 +752,7 @@
         <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -797,7 +797,7 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
@@ -1316,7 +1316,7 @@
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>2.2</v>
@@ -1465,7 +1465,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1528,10 +1528,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8">
@@ -1673,10 +1673,10 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1861,10 +1861,10 @@
         <v>2.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>3.5</v>
@@ -1872,45 +1872,45 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
         <v>24</v>
@@ -1919,31 +1919,31 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AH10" t="n">
         <v>6.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO10" t="n">
         <v>35</v>
@@ -1952,7 +1952,7 @@
         <v>28</v>
       </c>
       <c r="AQ10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2142,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2280,16 +2280,16 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2307,10 +2307,10 @@
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2432,16 +2432,16 @@
         <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
         <v>2.4</v>
@@ -2450,16 +2450,16 @@
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
         <v>1.53</v>
@@ -2563,19 +2563,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
@@ -2584,7 +2584,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2593,43 +2593,43 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="V15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB15" t="n">
         <v>6.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
@@ -2638,16 +2638,16 @@
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
         <v>81</v>
@@ -2656,13 +2656,13 @@
         <v>101</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>51</v>
@@ -2674,10 +2674,10 @@
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16">
@@ -2883,18 +2883,18 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
         <v>1.44</v>
@@ -3018,27 +3018,27 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
         <v>2.75</v>
@@ -3134,43 +3134,109 @@
           <t>Dinamo Tbilisi</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.05</v>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.97</v>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>22</v>
+      </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
     </row>
@@ -3205,43 +3271,109 @@
           <t>Iberia 1999</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.6</v>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>32</v>
+      </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
@@ -3276,43 +3408,109 @@
           <t>Gagra</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.5</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>37</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
@@ -3366,30 +3564,30 @@
         <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
         <v>1.4</v>
@@ -3759,22 +3957,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3783,22 +3981,22 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U25" t="n">
         <v>2.5</v>
@@ -3813,28 +4011,28 @@
         <v>3.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3843,25 +4041,25 @@
         <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM25" t="n">
         <v>11</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>15</v>
@@ -4037,19 +4235,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
         <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
@@ -4061,46 +4259,46 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>8.5</v>
@@ -4109,13 +4307,13 @@
         <v>17</v>
       </c>
       <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
         <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>7.5</v>
@@ -4127,13 +4325,13 @@
         <v>41</v>
       </c>
       <c r="AK27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
         <v>12</v>
@@ -4182,87 +4380,87 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="J28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.5</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
         <v>51</v>
       </c>
       <c r="AE28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="n">
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
@@ -4271,28 +4469,28 @@
         <v>201</v>
       </c>
       <c r="AL28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>9.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4327,81 +4525,81 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
         <v>2.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH29" t="n">
         <v>5.5</v>
@@ -4410,34 +4608,34 @@
         <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK29" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="30">
@@ -4472,7 +4670,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
@@ -4484,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -4496,24 +4694,24 @@
         <v>19</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="R30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
         <v>1.25</v>
@@ -4522,7 +4720,7 @@
         <v>3.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z30" t="n">
         <v>2.25</v>
@@ -4613,7 +4811,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
         <v>4.33</v>
@@ -4643,7 +4841,7 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
         <v>2.2</v>
@@ -4663,7 +4861,7 @@
         <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z31" t="n">
         <v>2</v>
@@ -4754,28 +4952,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L32" t="n">
         <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
         <v>1.14</v>
@@ -4784,40 +4982,40 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R32" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T32" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V32" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
         <v>12</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>9</v>
@@ -4899,13 +5097,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4914,7 +5112,7 @@
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -4929,7 +5127,7 @@
         <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
         <v>2.2</v>
@@ -4949,7 +5147,7 @@
         <v>3.25</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z33" t="n">
         <v>2.25</v>
@@ -5040,7 +5238,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
@@ -5073,7 +5271,7 @@
         <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5093,7 +5291,7 @@
         <v>2.2</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -5197,7 +5395,7 @@
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L35" t="n">
         <v>3.6</v>
@@ -5342,7 +5540,7 @@
         <v>2.05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L36" t="n">
         <v>6</v>
@@ -5479,28 +5677,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="K37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L37" t="n">
+        <v>13</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
         <v>15</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -5509,22 +5707,22 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T37" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
         <v>1.36</v>
@@ -5533,28 +5731,28 @@
         <v>3</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA37" t="n">
         <v>5.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
         <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
         <v>12</v>
@@ -5581,19 +5779,19 @@
         <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP37" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ37" t="n">
         <v>101</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS37" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="38">
@@ -6229,7 +6427,7 @@
         <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6303,10 +6501,10 @@
         <v>51</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="43">
@@ -6371,16 +6569,16 @@
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R43" t="n">
         <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T43" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U43" t="n">
         <v>2.38</v>
@@ -6431,7 +6629,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="n">
         <v>19</v>
@@ -6443,7 +6641,7 @@
         <v>17</v>
       </c>
       <c r="AO43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP43" t="n">
         <v>41</v>
@@ -6519,7 +6717,7 @@
         <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6660,7 +6858,7 @@
         <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6768,13 +6966,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
@@ -6783,7 +6981,7 @@
         <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.07</v>
@@ -6818,10 +7016,10 @@
         <v>2.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -6872,7 +7070,7 @@
         <v>26</v>
       </c>
       <c r="AQ46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -6963,10 +7161,10 @@
         <v>2.63</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
@@ -7108,10 +7306,10 @@
         <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA48" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -996,13 +996,13 @@
         <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1043,13 +1043,13 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
         <v>8</v>
@@ -1131,22 +1131,22 @@
         <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1155,16 +1155,16 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U5" t="n">
         <v>5.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
         <v>1.57</v>
@@ -1230,10 +1230,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -1286,13 +1286,13 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P6" t="n">
         <v>2.25</v>
@@ -1313,10 +1313,10 @@
         <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
         <v>2.2</v>
@@ -1432,16 +1432,16 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
         <v>2.5</v>
@@ -1453,7 +1453,7 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.23</v>
@@ -1462,19 +1462,19 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1504,7 +1504,7 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -1513,13 +1513,13 @@
         <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>
@@ -1528,10 +1528,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -1575,7 +1575,7 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1584,16 +1584,16 @@
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q8" t="n">
         <v>2.7</v>
@@ -1607,7 +1607,7 @@
         <v>5.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
         <v>1.62</v>
@@ -1643,25 +1643,25 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN8" t="n">
         <v>15</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>41</v>
@@ -1729,10 +1729,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1770,13 +1770,13 @@
         <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>29</v>
@@ -1803,10 +1803,10 @@
         <v>6.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
@@ -2142,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2280,16 +2280,16 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2307,10 +2307,10 @@
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2432,16 +2432,16 @@
         <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
         <v>2.4</v>
@@ -2459,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>1.53</v>
@@ -2563,19 +2563,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
@@ -2584,7 +2584,7 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2593,28 +2593,28 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U15" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y15" t="n">
         <v>2.25</v>
@@ -2626,28 +2626,28 @@
         <v>5.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>81</v>
@@ -2656,28 +2656,28 @@
         <v>101</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>51</v>
       </c>
       <c r="AP15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2715,10 +2715,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2727,7 +2727,7 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2736,16 +2736,16 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2756,19 +2756,19 @@
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2786,7 +2786,7 @@
         <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>6.5</v>
@@ -2798,25 +2798,25 @@
         <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM16" t="n">
         <v>12</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2871,13 +2871,13 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2894,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W17" t="n">
         <v>1.44</v>
@@ -3012,13 +3012,13 @@
         <v>3.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3035,10 +3035,10 @@
         <v>3.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
         <v>2.75</v>
@@ -3135,107 +3135,107 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.97</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="AA19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC19" t="n">
         <v>7.8</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
         <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
         <v>101</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AM19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3272,25 +3272,29 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.6</v>
+      </c>
       <c r="O20" t="n">
         <v>1.4</v>
       </c>
@@ -3298,36 +3302,36 @@
         <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V20" t="n">
         <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AA20" t="n">
         <v>5.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8</v>
@@ -3342,37 +3346,37 @@
         <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AH20" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AI20" t="n">
         <v>11.75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
         <v>450</v>
       </c>
       <c r="AL20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AM20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO20" t="n">
         <v>30</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3409,33 +3413,33 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K21" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R21" t="n">
         <v>1.5</v>
@@ -3443,10 +3447,10 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W21" t="n">
         <v>1.47</v>
@@ -3455,37 +3459,37 @@
         <v>2.22</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
         <v>70</v>
@@ -3494,19 +3498,19 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>37</v>
@@ -3549,25 +3553,25 @@
         <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -3590,19 +3594,19 @@
         <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
         <v>17</v>
@@ -3617,13 +3621,13 @@
         <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -3632,10 +3636,10 @@
         <v>41</v>
       </c>
       <c r="AK22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>11</v>
@@ -3650,7 +3654,7 @@
         <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -4105,19 +4109,19 @@
         <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
         <v>6.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -4128,10 +4132,10 @@
         <v>4.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4144,46 +4148,46 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AC26" t="n">
         <v>7.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM26" t="n">
         <v>32</v>
@@ -4195,10 +4199,10 @@
         <v>100</v>
       </c>
       <c r="AP26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>50</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>45</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4235,7 +4239,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
         <v>3.9</v>
@@ -4244,7 +4248,7 @@
         <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
@@ -4298,7 +4302,7 @@
         <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
         <v>8.5</v>
@@ -4325,16 +4329,16 @@
         <v>41</v>
       </c>
       <c r="AK27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>41</v>
@@ -4398,10 +4402,10 @@
         <v>2.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -4430,10 +4434,10 @@
         <v>2.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA28" t="n">
         <v>10</v>
@@ -4460,7 +4464,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
@@ -4469,7 +4473,7 @@
         <v>201</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -4534,7 +4538,7 @@
         <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
@@ -4593,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -4605,7 +4609,7 @@
         <v>5.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>51</v>
@@ -4632,10 +4636,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4682,10 +4686,10 @@
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -4720,16 +4724,16 @@
         <v>3.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
@@ -4741,13 +4745,13 @@
         <v>11</v>
       </c>
       <c r="AF30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG30" t="n">
         <v>19</v>
       </c>
-      <c r="AG30" t="n">
-        <v>21</v>
-      </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4756,7 +4760,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
@@ -4841,10 +4845,10 @@
         <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -4861,10 +4865,10 @@
         <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA31" t="n">
         <v>8</v>
@@ -4976,10 +4980,10 @@
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.53</v>
@@ -4988,10 +4992,10 @@
         <v>2.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
         <v>2.25</v>
@@ -5030,10 +5034,10 @@
         <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI32" t="n">
         <v>12</v>
@@ -5060,7 +5064,7 @@
         <v>23</v>
       </c>
       <c r="AQ32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5250,7 +5254,7 @@
         <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L34" t="n">
         <v>3.4</v>
@@ -5395,7 +5399,7 @@
         <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L35" t="n">
         <v>3.6</v>
@@ -5528,19 +5532,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
         <v>2.05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
         <v>6</v>
@@ -5564,7 +5568,7 @@
         <v>2.08</v>
       </c>
       <c r="S36" t="n">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="T36" t="n">
         <v>1.63</v>
@@ -5609,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI36" t="n">
         <v>17</v>
@@ -5627,7 +5631,7 @@
         <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
         <v>67</v>
@@ -5686,7 +5690,7 @@
         <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K37" t="n">
         <v>2.5</v>
@@ -6406,7 +6410,7 @@
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L42" t="n">
         <v>4.33</v>
@@ -6427,7 +6431,7 @@
         <v>2.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -6501,10 +6505,10 @@
         <v>51</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="43">
@@ -6569,16 +6573,16 @@
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
         <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T43" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U43" t="n">
         <v>2.38</v>
@@ -6717,7 +6721,7 @@
         <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6825,22 +6829,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H45" t="n">
         <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L45" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6855,10 +6859,10 @@
         <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6875,28 +6879,28 @@
         <v>2.63</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE45" t="n">
         <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
         <v>9</v>
@@ -6920,13 +6924,13 @@
         <v>13</v>
       </c>
       <c r="AN45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ45" t="n">
         <v>34</v>
@@ -7016,10 +7020,10 @@
         <v>2.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -7111,28 +7115,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="K47" t="n">
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
         <v>1.33</v>
@@ -7141,10 +7145,10 @@
         <v>3.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R47" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7161,22 +7165,22 @@
         <v>2.63</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC47" t="n">
         <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE47" t="n">
         <v>15</v>
@@ -7191,22 +7195,22 @@
         <v>7</v>
       </c>
       <c r="AI47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK47" t="n">
         <v>351</v>
       </c>
       <c r="AL47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO47" t="n">
         <v>51</v>
@@ -7256,13 +7260,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J48" t="n">
         <v>3.5</v>
@@ -7271,13 +7275,13 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -7306,10 +7310,10 @@
         <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA48" t="n">
         <v>7.5</v>
@@ -7321,7 +7325,7 @@
         <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE48" t="n">
         <v>23</v>
@@ -7351,7 +7355,7 @@
         <v>12</v>
       </c>
       <c r="AN48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO48" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -746,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -867,18 +867,18 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1179,16 +1179,16 @@
         <v>1.57</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1212,16 +1212,16 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
@@ -1277,7 +1277,7 @@
         <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
@@ -1286,34 +1286,34 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T6" t="n">
         <v>1.18</v>
       </c>
       <c r="U6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
         <v>1.67</v>
@@ -1322,16 +1322,16 @@
         <v>2.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA6" t="n">
         <v>5.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1852,53 +1852,53 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z10" t="n">
         <v>1.7</v>
@@ -1907,13 +1907,13 @@
         <v>6.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC10" t="n">
         <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -1922,10 +1922,10 @@
         <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>17</v>
@@ -1937,19 +1937,19 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AM10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>35</v>
       </c>
       <c r="AP10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>45</v>
@@ -2148,16 +2148,16 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2414,67 +2414,67 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB14" t="n">
         <v>6</v>
@@ -2483,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -2492,7 +2492,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
         <v>8.5</v>
@@ -2507,16 +2507,16 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="n">
         <v>51</v>
@@ -2563,28 +2563,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2593,16 +2593,16 @@
         <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U15" t="n">
         <v>4.33</v>
@@ -2632,16 +2632,16 @@
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -2656,10 +2656,10 @@
         <v>101</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>17</v>
@@ -2718,7 +2718,7 @@
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2742,10 +2742,10 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2756,19 +2756,19 @@
         <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2786,19 +2786,19 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>51</v>
       </c>
       <c r="AK16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL16" t="n">
         <v>8</v>
@@ -2853,13 +2853,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2868,13 +2868,13 @@
         <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2912,19 +2912,19 @@
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
         <v>8</v>
@@ -2942,10 +2942,10 @@
         <v>351</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>13</v>
@@ -2994,48 +2994,48 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3050,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -3068,22 +3068,22 @@
         <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>6.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>13</v>
@@ -3092,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3144,83 +3144,83 @@
         <v>2.55</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
         <v>2.02</v>
       </c>
       <c r="L19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD19" t="n">
         <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH19" t="n">
         <v>5.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM19" t="n">
         <v>10.5</v>
@@ -3232,7 +3232,7 @@
         <v>22</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3290,10 +3290,10 @@
         <v>3.65</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
@@ -3322,10 +3322,10 @@
         <v>2.22</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AA20" t="n">
         <v>5.8</v>
@@ -3413,22 +3413,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J21" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -3459,31 +3459,31 @@
         <v>2.22</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
@@ -3492,22 +3492,22 @@
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AM21" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AN21" t="n">
         <v>9.25</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>24</v>
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J22" t="n">
         <v>4.33</v>
@@ -3565,33 +3565,33 @@
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
         <v>1.33</v>
@@ -3624,7 +3624,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>7.5</v>
@@ -3654,7 +3654,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3691,22 +3691,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K23" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="L23" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3714,21 +3714,21 @@
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -3736,22 +3736,22 @@
         <v>1.57</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -3760,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AI23" t="n">
         <v>13</v>
@@ -3772,22 +3772,22 @@
         <v>300</v>
       </c>
       <c r="AL23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>35</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>32</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3824,107 +3824,107 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="J24" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.12</v>
       </c>
       <c r="L24" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W24" t="n">
         <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="AA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10.75</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
         <v>6.8</v>
       </c>
       <c r="AI24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AM24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4384,22 +4384,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4434,22 +4434,22 @@
         <v>2.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA28" t="n">
         <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="n">
         <v>41</v>
@@ -4473,10 +4473,10 @@
         <v>201</v>
       </c>
       <c r="AL28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN28" t="n">
         <v>9.5</v>
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -4704,16 +4704,16 @@
         <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -5105,13 +5105,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -5176,7 +5176,7 @@
         <v>21</v>
       </c>
       <c r="AF33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
         <v>15</v>
@@ -5197,10 +5197,10 @@
         <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO33" t="n">
         <v>23</v>
@@ -5267,7 +5267,7 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5536,22 +5536,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5560,28 +5560,28 @@
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S36" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T36" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
         <v>1.36</v>
@@ -5590,55 +5590,55 @@
         <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC36" t="n">
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE36" t="n">
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP36" t="n">
         <v>51</v>
@@ -5647,10 +5647,10 @@
         <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AS36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="37">
@@ -5703,10 +5703,10 @@
         <v>11</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
@@ -6257,13 +6257,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -6272,7 +6272,7 @@
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -6313,19 +6313,19 @@
         <v>1.67</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB41" t="n">
         <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -6346,7 +6346,7 @@
         <v>900</v>
       </c>
       <c r="AL41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM41" t="n">
         <v>10</v>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="AO41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP41" t="n">
         <v>23</v>
@@ -6547,16 +6547,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H43" t="n">
         <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
@@ -6577,16 +6577,16 @@
         <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S43" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U43" t="n">
         <v>2.5</v>
@@ -6601,25 +6601,25 @@
         <v>3.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
       </c>
       <c r="AD43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE43" t="n">
         <v>11</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>12</v>
       </c>
       <c r="AF43" t="n">
         <v>23</v>
@@ -6640,13 +6640,13 @@
         <v>201</v>
       </c>
       <c r="AL43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="n">
         <v>67</v>
@@ -6692,72 +6692,72 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H44" t="n">
         <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R44" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X44" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE44" t="n">
         <v>21</v>
@@ -6766,37 +6766,37 @@
         <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH44" t="n">
         <v>5.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ44" t="n">
         <v>51</v>
       </c>
       <c r="AK44" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL44" t="n">
         <v>9</v>
       </c>
       <c r="AM44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP44" t="n">
         <v>29</v>
       </c>
-      <c r="AP44" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6857,10 +6857,10 @@
         <v>8.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -6892,7 +6892,7 @@
         <v>7.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>10</v>
@@ -7119,28 +7119,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.33</v>
@@ -7193,10 +7193,10 @@
         <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI47" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
         <v>2.07</v>
@@ -734,10 +734,10 @@
         <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
         <v>1.36</v>
@@ -746,10 +746,10 @@
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -764,7 +764,7 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -800,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -861,24 +861,24 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
@@ -905,16 +905,16 @@
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -923,7 +923,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1040,13 +1040,13 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1070,13 +1070,13 @@
         <v>7</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1155,7 +1155,7 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
         <v>1.19</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1286,73 +1286,73 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>81</v>
@@ -1361,7 +1361,7 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
@@ -1729,10 +1729,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1741,24 +1741,24 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y9" t="n">
         <v>2.63</v>
@@ -2133,7 +2133,7 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
@@ -2450,10 +2450,10 @@
         <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -2736,39 +2736,39 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2783,25 +2783,25 @@
         <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM16" t="n">
         <v>12</v>
@@ -2994,22 +2994,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3024,18 +3024,18 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
         <v>6.5</v>
@@ -3092,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
@@ -3135,107 +3135,107 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AM19" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3272,22 +3272,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3302,81 +3302,81 @@
         <v>2.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AB20" t="n">
         <v>9.75</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AH20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AL20" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AM20" t="n">
         <v>11.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>30</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>35</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3413,22 +3413,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -3439,10 +3439,10 @@
         <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3453,67 +3453,67 @@
         <v>1.18</v>
       </c>
       <c r="W21" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AM21" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AQ21" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3550,28 +3550,28 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.75</v>
-      </c>
       <c r="I22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -3609,16 +3609,16 @@
         <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD22" t="n">
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
@@ -3636,13 +3636,13 @@
         <v>41</v>
       </c>
       <c r="AK22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL22" t="n">
         <v>8.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
         <v>8.5</v>
@@ -3694,10 +3694,10 @@
         <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J23" t="n">
         <v>2.15</v>
@@ -3706,7 +3706,7 @@
         <v>2.32</v>
       </c>
       <c r="L23" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3725,10 +3725,10 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
         <v>1.57</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA23" t="n">
         <v>8.75</v>
@@ -3748,7 +3748,7 @@
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
         <v>12</v>
@@ -3757,7 +3757,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
         <v>7.8</v>
@@ -3784,7 +3784,7 @@
         <v>80</v>
       </c>
       <c r="AP23" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ23" t="n">
         <v>35</v>
@@ -3833,7 +3833,7 @@
         <v>1.82</v>
       </c>
       <c r="J24" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="K24" t="n">
         <v>2.12</v>
@@ -3861,7 +3861,7 @@
         <v>2.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
         <v>1.38</v>
@@ -3876,13 +3876,13 @@
         <v>1.98</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>65</v>
@@ -3909,7 +3909,7 @@
         <v>450</v>
       </c>
       <c r="AL24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AM24" t="n">
         <v>9</v>
@@ -3924,7 +3924,7 @@
         <v>14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3961,16 +3961,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2.38</v>
@@ -4063,7 +4063,7 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>15</v>
@@ -4106,103 +4106,103 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L26" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AC26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH26" t="n">
         <v>7</v>
       </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AI26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="n">
         <v>450</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AP26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AQ26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4384,16 +4384,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
         <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
@@ -4440,7 +4440,7 @@
         <v>1.67</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
         <v>19</v>
@@ -4464,7 +4464,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
@@ -4476,13 +4476,13 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>9.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -4674,28 +4674,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>2.6</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
         <v>1.14</v>
@@ -4710,10 +4710,10 @@
         <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -4728,31 +4728,31 @@
         <v>3.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
@@ -4764,7 +4764,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
@@ -4773,16 +4773,16 @@
         <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP30" t="n">
         <v>41</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4819,19 +4819,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
         <v>5.25</v>
       </c>
       <c r="J31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L31" t="n">
         <v>5.5</v>
@@ -4840,75 +4840,79 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y31" t="n">
         <v>1.67</v>
       </c>
-      <c r="R31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Z31" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC31" t="n">
         <v>8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL31" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>29</v>
@@ -5108,10 +5112,10 @@
         <v>2.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -5120,7 +5124,7 @@
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5129,10 +5133,10 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
         <v>1.65</v>
@@ -5143,10 +5147,10 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
         <v>1.33</v>
@@ -5182,13 +5186,13 @@
         <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="n">
         <v>126</v>
@@ -5197,10 +5201,10 @@
         <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO33" t="n">
         <v>23</v>
@@ -5252,7 +5256,7 @@
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5264,10 +5268,10 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5305,7 +5309,7 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
@@ -5320,7 +5324,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5391,22 +5395,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
         <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
@@ -5441,10 +5445,10 @@
         <v>2.25</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
@@ -5456,10 +5460,10 @@
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
@@ -5474,7 +5478,7 @@
         <v>19</v>
       </c>
       <c r="AJ35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="n">
         <v>101</v>
@@ -5483,7 +5487,7 @@
         <v>6.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN35" t="n">
         <v>11</v>
@@ -5536,28 +5540,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5566,22 +5570,22 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
-        <v>2.28</v>
+        <v>2.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
         <v>1.36</v>
@@ -5590,34 +5594,34 @@
         <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC36" t="n">
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
         <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI36" t="n">
         <v>19</v>
@@ -5629,16 +5633,16 @@
         <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP36" t="n">
         <v>51</v>
@@ -5647,10 +5651,10 @@
         <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS36" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="37">
@@ -5685,22 +5689,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="K37" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5709,28 +5713,28 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S37" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
         <v>1.4</v>
@@ -5739,67 +5743,67 @@
         <v>2.75</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB37" t="n">
         <v>5.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ37" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="n">
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP37" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="38">
@@ -5834,13 +5838,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
         <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -5858,10 +5862,10 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q38" t="n">
         <v>1.7</v>
@@ -5896,13 +5900,13 @@
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
         <v>41</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF38" t="n">
         <v>29</v>
@@ -5999,16 +6003,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6116,10 +6120,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
         <v>4.5</v>
@@ -6131,33 +6135,33 @@
         <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -6166,16 +6170,16 @@
         <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
@@ -6190,22 +6194,22 @@
         <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH40" t="n">
         <v>6.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM40" t="n">
         <v>21</v>
@@ -6217,7 +6221,7 @@
         <v>51</v>
       </c>
       <c r="AP40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -6257,22 +6261,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -6313,19 +6317,19 @@
         <v>1.67</v>
       </c>
       <c r="AA41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD41" t="n">
         <v>34</v>
       </c>
       <c r="AE41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -6346,16 +6350,16 @@
         <v>900</v>
       </c>
       <c r="AL41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN41" t="n">
         <v>10</v>
       </c>
       <c r="AO41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP41" t="n">
         <v>23</v>
@@ -6402,16 +6406,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>1.91</v>
@@ -6461,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
@@ -6470,13 +6474,13 @@
         <v>21</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
@@ -6485,7 +6489,7 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="n">
         <v>1000</v>
@@ -6494,7 +6498,7 @@
         <v>8</v>
       </c>
       <c r="AM42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN42" t="n">
         <v>13</v>
@@ -6547,22 +6551,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J43" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6583,10 +6587,10 @@
         <v>2.25</v>
       </c>
       <c r="S43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
         <v>2.5</v>
@@ -6601,10 +6605,10 @@
         <v>3.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
@@ -6628,16 +6632,16 @@
         <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="n">
         <v>51</v>
       </c>
       <c r="AK43" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL43" t="n">
         <v>19</v>
@@ -6692,72 +6696,72 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H44" t="n">
         <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="n">
         <v>21</v>
@@ -6766,40 +6770,44 @@
         <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK44" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="n">
         <v>9</v>
       </c>
       <c r="AM44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP44" t="n">
         <v>34</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>29</v>
       </c>
       <c r="AQ44" t="n">
         <v>41</v>
       </c>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
+      <c r="AR44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6854,13 +6862,13 @@
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -6883,10 +6891,10 @@
         <v>2.63</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA45" t="n">
         <v>7.5</v>
@@ -6977,13 +6985,13 @@
         <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
         <v>2.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
@@ -6992,22 +7000,22 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7024,10 +7032,10 @@
         <v>2.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -7048,10 +7056,10 @@
         <v>34</v>
       </c>
       <c r="AG46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -7078,7 +7086,7 @@
         <v>26</v>
       </c>
       <c r="AQ46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR46" t="n">
         <v>1.75</v>
@@ -7140,7 +7148,7 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
         <v>1.33</v>
@@ -7172,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA47" t="n">
         <v>6</v>
@@ -7264,22 +7272,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L48" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -7308,25 +7316,25 @@
         <v>1.2</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="n">
         <v>26</v>
@@ -7335,10 +7343,10 @@
         <v>23</v>
       </c>
       <c r="AF48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH48" t="n">
         <v>6</v>
@@ -7347,7 +7355,7 @@
         <v>17</v>
       </c>
       <c r="AJ48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK48" t="n">
         <v>351</v>
@@ -7356,19 +7364,19 @@
         <v>7.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN48" t="n">
         <v>11</v>
       </c>
       <c r="AO48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP48" t="n">
         <v>26</v>
       </c>
-      <c r="AP48" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR48" t="n">
         <v>1.78</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -710,10 +710,10 @@
         <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>2.07</v>
@@ -734,10 +734,10 @@
         <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
         <v>1.36</v>
@@ -746,13 +746,13 @@
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z2" t="n">
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -800,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -843,7 +843,7 @@
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.3</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,10 +887,10 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -1022,7 +1022,7 @@
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>2.5</v>
@@ -1052,22 +1052,22 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
@@ -1122,7 +1122,7 @@
         <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -1167,19 +1167,19 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="n">
         <v>8.5</v>
@@ -1191,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1212,7 +1212,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1221,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1268,79 +1268,79 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.11</v>
       </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
         <v>2.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1352,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>81</v>
@@ -1361,16 +1361,16 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1852,107 +1852,111 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>2.07</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.87</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.6</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z10" t="n">
         <v>1.5</v>
       </c>
-      <c r="X10" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AA10" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="AK10" t="n">
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AQ10" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1989,22 +1993,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>1.93</v>
       </c>
       <c r="L11" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2015,7 +2019,7 @@
         <v>2.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
         <v>1.47</v>
@@ -2035,25 +2039,25 @@
         <v>2.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA11" t="n">
         <v>6.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE11" t="n">
         <v>25</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>24</v>
       </c>
       <c r="AF11" t="n">
         <v>45</v>
@@ -2068,7 +2072,7 @@
         <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
@@ -2078,13 +2082,13 @@
         <v>12.5</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>50</v>
@@ -2157,15 +2161,15 @@
         <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
@@ -2283,13 +2287,13 @@
         <v>2.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2307,10 +2311,10 @@
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2447,7 +2451,7 @@
         <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S14" t="n">
         <v>3.65</v>
@@ -2596,7 +2600,7 @@
         <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S15" t="n">
         <v>3.5</v>
@@ -2712,13 +2716,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
@@ -2730,10 +2734,10 @@
         <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2745,15 +2749,15 @@
         <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2871,13 +2875,13 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2886,7 +2890,7 @@
         <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2894,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W17" t="n">
         <v>1.5</v>
@@ -2903,10 +2907,10 @@
         <v>2.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -3012,27 +3016,27 @@
         <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V18" t="n">
         <v>1.3</v>
@@ -3044,7 +3048,7 @@
         <v>2.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z18" t="n">
         <v>2</v>
@@ -3135,22 +3139,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>2.95</v>
       </c>
       <c r="I19" t="n">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
         <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -3181,28 +3185,28 @@
         <v>2.22</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AA19" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>7.4</v>
@@ -3220,22 +3224,22 @@
         <v>450</v>
       </c>
       <c r="AL19" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AM19" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3272,22 +3276,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
         <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3302,7 +3306,7 @@
         <v>2.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
         <v>1.57</v>
@@ -3319,64 +3323,64 @@
         <v>1.42</v>
       </c>
       <c r="X20" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH20" t="n">
         <v>4.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
         <v>400</v>
       </c>
       <c r="AL20" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AM20" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AN20" t="n">
         <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3413,107 +3417,107 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L21" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P21" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA21" t="n">
         <v>5.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AI21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AM21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AO21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3550,22 +3554,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="J22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3574,10 +3578,10 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
         <v>1.7</v>
@@ -3588,10 +3592,10 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W22" t="n">
         <v>1.33</v>
@@ -3600,55 +3604,55 @@
         <v>3.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
         <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE22" t="n">
         <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK22" t="n">
         <v>201</v>
       </c>
       <c r="AL22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM22" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>9</v>
       </c>
       <c r="AN22" t="n">
         <v>8.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
@@ -3691,22 +3695,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="I23" t="n">
-        <v>4.55</v>
+        <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -3717,41 +3721,41 @@
         <v>3.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="AA23" t="n">
         <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -3760,34 +3764,34 @@
         <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>45</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>35</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -4384,22 +4388,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4417,7 +4421,7 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4428,7 +4432,7 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X28" t="n">
         <v>2.25</v>
@@ -4440,10 +4444,10 @@
         <v>1.67</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>15</v>
@@ -4452,16 +4456,16 @@
         <v>41</v>
       </c>
       <c r="AE28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF28" t="n">
         <v>41</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
       </c>
       <c r="AG28" t="n">
         <v>6.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI28" t="n">
         <v>17</v>
@@ -4479,7 +4483,7 @@
         <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
@@ -4491,10 +4495,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="29">
@@ -4529,16 +4533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H29" t="n">
         <v>2.7</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
@@ -4562,7 +4566,7 @@
         <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4573,10 +4577,10 @@
         <v>1.18</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
@@ -4585,7 +4589,7 @@
         <v>1.73</v>
       </c>
       <c r="AA29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
         <v>12</v>
@@ -4594,10 +4598,10 @@
         <v>11</v>
       </c>
       <c r="AD29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE29" t="n">
         <v>26</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -4624,7 +4628,7 @@
         <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -4636,10 +4640,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4674,7 +4678,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
         <v>4.33</v>
@@ -4686,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -4704,16 +4708,16 @@
         <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R30" t="n">
         <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -4722,16 +4726,16 @@
         <v>1.62</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X30" t="n">
         <v>3.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
@@ -4849,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
@@ -4867,7 +4871,7 @@
         <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X31" t="n">
         <v>3.5</v>
@@ -4964,22 +4968,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
         <v>2.4</v>
       </c>
       <c r="L32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -5036,7 +5040,7 @@
         <v>19</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
         <v>19</v>
@@ -5048,7 +5052,7 @@
         <v>7.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -5063,7 +5067,7 @@
         <v>21</v>
       </c>
       <c r="AN32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>
@@ -5256,7 +5260,7 @@
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5268,10 +5272,10 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5309,7 +5313,7 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
@@ -5324,7 +5328,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5540,22 +5544,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="K36" t="n">
         <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5570,16 +5574,16 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S36" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U36" t="n">
         <v>3.25</v>
@@ -5594,22 +5598,22 @@
         <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC36" t="n">
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -5621,28 +5625,28 @@
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK36" t="n">
         <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP36" t="n">
         <v>51</v>
@@ -5651,10 +5655,10 @@
         <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="37">
@@ -5689,22 +5693,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I37" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="J37" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L37" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5713,97 +5717,97 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R37" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S37" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="T37" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AA37" t="n">
         <v>5.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI37" t="n">
         <v>34</v>
       </c>
-      <c r="AG37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="n">
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AP37" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AQ37" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="38">
@@ -5856,10 +5860,10 @@
         <v>2.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
@@ -5979,22 +5983,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -6009,10 +6013,10 @@
         <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R39" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6038,13 +6042,13 @@
         <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>10</v>
       </c>
       <c r="AD39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE39" t="n">
         <v>21</v>
@@ -6068,7 +6072,7 @@
         <v>201</v>
       </c>
       <c r="AL39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM39" t="n">
         <v>13</v>
@@ -6077,13 +6081,13 @@
         <v>10</v>
       </c>
       <c r="AO39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6120,13 +6124,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J40" t="n">
         <v>2.5</v>
@@ -6170,10 +6174,10 @@
         <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA40" t="n">
         <v>7</v>
@@ -6209,7 +6213,7 @@
         <v>301</v>
       </c>
       <c r="AL40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM40" t="n">
         <v>21</v>
@@ -6218,7 +6222,7 @@
         <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP40" t="n">
         <v>34</v>
@@ -6261,13 +6265,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -6314,10 +6318,10 @@
         <v>2.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
         <v>13</v>
@@ -6326,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6356,22 +6360,22 @@
         <v>11</v>
       </c>
       <c r="AN41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="42">
@@ -6459,7 +6463,7 @@
         <v>2.2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -6605,10 +6609,10 @@
         <v>3.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
@@ -6841,22 +6845,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="n">
         <v>2.05</v>
       </c>
       <c r="L45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6871,30 +6875,30 @@
         <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W45" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA45" t="n">
         <v>7.5</v>
@@ -6906,7 +6910,7 @@
         <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE45" t="n">
         <v>21</v>
@@ -6915,7 +6919,7 @@
         <v>34</v>
       </c>
       <c r="AG45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH45" t="n">
         <v>6</v>
@@ -6930,7 +6934,7 @@
         <v>301</v>
       </c>
       <c r="AL45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM45" t="n">
         <v>13</v>
@@ -7000,10 +7004,10 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -7015,7 +7019,7 @@
         <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7026,16 +7030,16 @@
         <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
         <v>2.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA46" t="n">
         <v>7</v>
@@ -7059,7 +7063,7 @@
         <v>8</v>
       </c>
       <c r="AH46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -7127,40 +7131,40 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K47" t="n">
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7171,43 +7175,43 @@
         <v>1.29</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X47" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AA47" t="n">
         <v>6</v>
       </c>
       <c r="AB47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC47" t="n">
         <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
         <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH47" t="n">
         <v>7.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ47" t="n">
         <v>67</v>
@@ -7219,16 +7223,16 @@
         <v>13</v>
       </c>
       <c r="AM47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO47" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP47" t="n">
         <v>51</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>41</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
@@ -7272,13 +7276,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -7296,36 +7300,36 @@
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X48" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y48" t="n">
         <v>2</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA48" t="n">
         <v>7</v>
@@ -7337,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="AD48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE48" t="n">
         <v>23</v>
@@ -7379,10 +7383,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -710,10 +710,10 @@
         <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
         <v>2.07</v>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
         <v>2.1</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,10 +887,10 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -981,7 +981,7 @@
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>2.3</v>
@@ -996,16 +996,16 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1022,7 +1022,7 @@
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>2.5</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1155,10 +1155,10 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="U5" t="n">
         <v>6</v>
@@ -1167,19 +1167,19 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
         <v>2.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" t="n">
         <v>8.5</v>
@@ -1188,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1215,13 +1215,13 @@
         <v>8</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1268,28 +1268,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1316,22 +1316,22 @@
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1340,13 +1340,13 @@
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1367,7 +1367,7 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1423,7 +1423,7 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1432,13 +1432,13 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1471,10 +1471,10 @@
         <v>2.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1566,99 +1566,99 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
         <v>9.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN8" t="n">
         <v>13</v>
@@ -1670,13 +1670,13 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS8" t="n">
         <v>2.1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1.78</v>
       </c>
     </row>
     <row r="9">
@@ -1711,19 +1711,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -1732,7 +1732,7 @@
         <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.73</v>
@@ -1767,7 +1767,7 @@
         <v>1.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1785,7 +1785,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -1794,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1806,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
@@ -2146,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2158,10 +2158,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2287,13 +2287,13 @@
         <v>2.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2311,10 +2311,10 @@
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2451,7 +2451,7 @@
         <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>3.65</v>
@@ -2567,52 +2567,52 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.65</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
         <v>1.5</v>
@@ -2630,13 +2630,13 @@
         <v>5.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -2660,19 +2660,19 @@
         <v>101</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP15" t="n">
         <v>51</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>41</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
@@ -2746,18 +2746,18 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2875,13 +2875,13 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
         <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2890,7 +2890,7 @@
         <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
         <v>1.5</v>
@@ -2907,10 +2907,10 @@
         <v>2.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2998,25 +2998,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
@@ -3025,13 +3025,13 @@
         <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
         <v>3.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3048,7 +3048,7 @@
         <v>2.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z18" t="n">
         <v>2</v>
@@ -3072,7 +3072,7 @@
         <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>6.5</v>
@@ -3276,37 +3276,37 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.3</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L20" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
         <v>1.57</v>
@@ -3314,73 +3314,73 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AH20" t="n">
         <v>4.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL20" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="AM20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>32</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>29</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3426,27 +3426,27 @@
         <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="K21" t="n">
         <v>1.93</v>
       </c>
       <c r="L21" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3463,16 +3463,16 @@
         <v>2.22</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
         <v>7.5</v>
@@ -3481,13 +3481,13 @@
         <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH21" t="n">
         <v>5.1</v>
@@ -3502,22 +3502,22 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AM21" t="n">
         <v>14</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO21" t="n">
         <v>40</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3554,22 +3554,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L22" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3584,10 +3584,10 @@
         <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3604,31 +3604,31 @@
         <v>3.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
         <v>15</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>8</v>
@@ -3637,28 +3637,28 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN22" t="n">
         <v>8.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3695,19 +3695,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H23" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L23" t="n">
         <v>5.2</v>
@@ -3721,15 +3721,15 @@
         <v>3.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
         <v>1.52</v>
@@ -3743,31 +3743,31 @@
         <v>2.02</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>55</v>
@@ -3776,16 +3776,16 @@
         <v>350</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP23" t="n">
         <v>50</v>
@@ -3828,107 +3828,107 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="J24" t="n">
-        <v>4.35</v>
+        <v>5.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L24" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AA24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP24" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
@@ -3977,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
         <v>2.5</v>
@@ -3989,16 +3989,16 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="n">
         <v>2.03</v>
@@ -4007,10 +4007,10 @@
         <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
         <v>1.3</v>
@@ -4019,10 +4019,10 @@
         <v>3.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA25" t="n">
         <v>15</v>
@@ -4052,19 +4052,19 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="n">
         <v>126</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM25" t="n">
         <v>11</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
@@ -4119,13 +4119,13 @@
         <v>6.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="K26" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -4136,10 +4136,10 @@
         <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4158,43 +4158,43 @@
         <v>1.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN26" t="n">
         <v>16.5</v>
@@ -4406,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -4421,7 +4421,7 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4432,7 +4432,7 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
         <v>2.25</v>
@@ -4495,10 +4495,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="29">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
         <v>2.7</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>1.95</v>
@@ -4566,7 +4566,7 @@
         <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4577,10 +4577,10 @@
         <v>1.18</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
@@ -4598,7 +4598,7 @@
         <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -4628,7 +4628,7 @@
         <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -4678,22 +4678,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L30" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -4708,10 +4708,10 @@
         <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S30" t="n">
         <v>1.8</v>
@@ -4720,13 +4720,13 @@
         <v>2.05</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
         <v>3.75</v>
@@ -4747,7 +4747,7 @@
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -4759,7 +4759,7 @@
         <v>19</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4768,7 +4768,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
@@ -4777,16 +4777,16 @@
         <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP30" t="n">
         <v>41</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4853,16 +4853,16 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
         <v>2.38</v>
@@ -4871,7 +4871,7 @@
         <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X31" t="n">
         <v>3.5</v>
@@ -5137,24 +5137,24 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
         <v>1.33</v>
@@ -5361,10 +5361,10 @@
         <v>41</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="35">
@@ -5544,28 +5544,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="n">
         <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5574,16 +5574,16 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S36" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="T36" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U36" t="n">
         <v>3.25</v>
@@ -5607,13 +5607,13 @@
         <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC36" t="n">
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -5625,25 +5625,25 @@
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK36" t="n">
         <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
         <v>81</v>
@@ -5655,10 +5655,10 @@
         <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="37">
@@ -5693,22 +5693,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H37" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J37" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="K37" t="n">
         <v>2.4</v>
       </c>
       <c r="L37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5717,16 +5717,16 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
         <v>2.55</v>
@@ -5747,19 +5747,19 @@
         <v>3</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA37" t="n">
         <v>5.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
@@ -5771,22 +5771,22 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="n">
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
         <v>51</v>
@@ -5795,13 +5795,13 @@
         <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP37" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ37" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR37" t="n">
         <v>1.45</v>
@@ -5842,13 +5842,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -5860,30 +5860,30 @@
         <v>2.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
         <v>1.33</v>
@@ -5904,13 +5904,13 @@
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>41</v>
       </c>
       <c r="AE38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>29</v>
@@ -6007,16 +6007,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6174,10 +6174,10 @@
         <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA40" t="n">
         <v>7</v>
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -6283,10 +6283,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6318,10 +6318,10 @@
         <v>2.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>13</v>
@@ -6330,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE41" t="n">
         <v>29</v>
@@ -6363,10 +6363,10 @@
         <v>11</v>
       </c>
       <c r="AO41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ41" t="n">
         <v>41</v>
@@ -6410,22 +6410,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>1.91</v>
       </c>
       <c r="L42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.11</v>
@@ -6463,13 +6463,13 @@
         <v>2.2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
@@ -6478,7 +6478,7 @@
         <v>21</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -6502,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="AM42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN42" t="n">
         <v>13</v>
@@ -6579,10 +6579,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
         <v>1.62</v>
@@ -6609,10 +6609,10 @@
         <v>3.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA43" t="n">
         <v>8</v>
@@ -6889,7 +6889,7 @@
         <v>1.22</v>
       </c>
       <c r="W45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X45" t="n">
         <v>2.5</v>
@@ -7030,7 +7030,7 @@
         <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X46" t="n">
         <v>2.5</v>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J47" t="n">
         <v>2.2</v>
@@ -7146,7 +7146,7 @@
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>1.07</v>
@@ -7155,16 +7155,16 @@
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7175,22 +7175,22 @@
         <v>1.29</v>
       </c>
       <c r="W47" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA47" t="n">
         <v>6</v>
       </c>
       <c r="AB47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
         <v>8.5</v>
@@ -7199,7 +7199,7 @@
         <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
         <v>29</v>
@@ -7211,7 +7211,7 @@
         <v>7.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="n">
         <v>67</v>
@@ -7232,7 +7232,7 @@
         <v>67</v>
       </c>
       <c r="AP47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ47" t="n">
         <v>51</v>
@@ -7276,13 +7276,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -7309,7 +7309,7 @@
         <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7320,10 +7320,10 @@
         <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y48" t="n">
         <v>2</v>
@@ -7338,10 +7338,10 @@
         <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE48" t="n">
         <v>23</v>
@@ -7350,7 +7350,7 @@
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH48" t="n">
         <v>6</v>
@@ -7365,10 +7365,10 @@
         <v>351</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN48" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -716,16 +716,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>2.07</v>
@@ -734,10 +734,10 @@
         <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
         <v>1.36</v>
@@ -752,7 +752,7 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1008,18 +1008,18 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1028,10 +1028,10 @@
         <v>2.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1084,8 +1084,12 @@
       <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AR4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1271,37 +1275,37 @@
         <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>5.2</v>
@@ -1310,25 +1314,25 @@
         <v>1.17</v>
       </c>
       <c r="U6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1340,13 +1344,13 @@
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1361,7 +1365,7 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
@@ -1417,16 +1421,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
@@ -1435,10 +1439,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1480,13 +1484,13 @@
         <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1504,22 +1508,22 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>
@@ -1528,10 +1532,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="8">
@@ -1584,30 +1588,30 @@
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1673,10 +1677,10 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="9">
@@ -1711,19 +1715,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -1767,7 +1771,7 @@
         <v>1.44</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1794,13 +1798,13 @@
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
@@ -1993,22 +1997,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="K11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2016,7 +2020,7 @@
         <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>2.35</v>
@@ -2027,7 +2031,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="V11" t="n">
         <v>1.16</v>
@@ -2039,25 +2043,25 @@
         <v>2.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
         <v>45</v>
@@ -2066,32 +2070,32 @@
         <v>6.8</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AM11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN11" t="n">
         <v>12.5</v>
       </c>
-      <c r="AN11" t="n">
-        <v>11</v>
-      </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2128,10 +2132,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>4.33</v>
@@ -2140,7 +2144,7 @@
         <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
@@ -2178,10 +2182,10 @@
         <v>2.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -2202,7 +2206,7 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH12" t="n">
         <v>6.5</v>
@@ -2232,7 +2236,7 @@
         <v>41</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2567,7 +2571,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
@@ -2585,10 +2589,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2597,16 +2601,16 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U15" t="n">
         <v>4</v>
@@ -2615,10 +2619,10 @@
         <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
         <v>2.2</v>
@@ -2648,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
@@ -2716,48 +2720,48 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2766,13 +2770,13 @@
         <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2781,7 +2785,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>23</v>
@@ -2790,7 +2794,7 @@
         <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>6.5</v>
@@ -2814,13 +2818,13 @@
         <v>9.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2887,10 +2891,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2998,22 +3002,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3028,18 +3032,18 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3048,13 +3052,13 @@
         <v>2.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -3084,10 +3088,10 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM18" t="n">
         <v>13</v>
@@ -3417,22 +3421,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="K21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -3443,10 +3447,10 @@
         <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3463,37 +3467,37 @@
         <v>2.22</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AI21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="n">
         <v>70</v>
@@ -3502,19 +3506,19 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ21" t="n">
         <v>40</v>
@@ -3965,40 +3969,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>1.91</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="S25" t="n">
         <v>2.03</v>
@@ -4007,25 +4011,25 @@
         <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
@@ -4037,31 +4041,31 @@
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
       </c>
       <c r="AK25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM25" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>11</v>
       </c>
       <c r="AN25" t="n">
         <v>8.5</v>
@@ -4073,7 +4077,7 @@
         <v>15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4110,22 +4114,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -4158,49 +4162,49 @@
         <v>1.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AE26" t="n">
         <v>9.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL26" t="n">
         <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN26" t="n">
         <v>16.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP26" t="n">
         <v>55</v>
@@ -4388,13 +4392,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>4.33</v>
@@ -4403,13 +4407,13 @@
         <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -4432,16 +4436,16 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA28" t="n">
         <v>8.5</v>
@@ -4450,7 +4454,7 @@
         <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
         <v>41</v>
@@ -4477,16 +4481,16 @@
         <v>201</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN28" t="n">
         <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -4495,10 +4499,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="29">
@@ -4684,22 +4688,22 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.14</v>
@@ -4708,40 +4712,40 @@
         <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z30" t="n">
         <v>2.1</v>
       </c>
-      <c r="V30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
@@ -4753,13 +4757,13 @@
         <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -4859,10 +4863,10 @@
         <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
         <v>2.38</v>
@@ -4892,7 +4896,7 @@
         <v>8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -4904,7 +4908,7 @@
         <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -5113,13 +5117,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -5128,7 +5132,7 @@
         <v>2.3</v>
       </c>
       <c r="L33" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -5148,8 +5152,12 @@
       <c r="R33" t="n">
         <v>2.25</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U33" t="n">
         <v>2.5</v>
       </c>
@@ -5157,10 +5165,10 @@
         <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y33" t="n">
         <v>1.53</v>
@@ -5190,7 +5198,7 @@
         <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI33" t="n">
         <v>12</v>
@@ -5211,13 +5219,13 @@
         <v>9.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5260,7 +5268,7 @@
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5272,10 +5280,10 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5313,7 +5321,7 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
@@ -5328,7 +5336,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5361,10 +5369,10 @@
         <v>41</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="35">
@@ -5547,13 +5555,13 @@
         <v>1.45</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>2.3</v>
@@ -5562,10 +5570,10 @@
         <v>6.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5574,10 +5582,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
         <v>2.49</v>
@@ -5586,10 +5594,10 @@
         <v>1.54</v>
       </c>
       <c r="U36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
         <v>1.36</v>
@@ -5607,13 +5615,13 @@
         <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC36" t="n">
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -5622,22 +5630,22 @@
         <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK36" t="n">
         <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM36" t="n">
         <v>34</v>
@@ -5717,10 +5725,10 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
         <v>1.9</v>
@@ -5860,30 +5868,30 @@
         <v>2.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W38" t="n">
         <v>1.33</v>
@@ -6124,22 +6132,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -6174,22 +6182,22 @@
         <v>2.63</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA40" t="n">
         <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC40" t="n">
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE40" t="n">
         <v>15</v>
@@ -6210,7 +6218,7 @@
         <v>51</v>
       </c>
       <c r="AK40" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL40" t="n">
         <v>11</v>
@@ -6271,7 +6279,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J41" t="n">
         <v>3.75</v>
@@ -6283,10 +6291,10 @@
         <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -6372,10 +6380,10 @@
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="42">
@@ -6410,28 +6418,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>1.91</v>
       </c>
       <c r="L42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -6469,7 +6477,7 @@
         <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
@@ -6478,7 +6486,7 @@
         <v>21</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -6502,7 +6510,7 @@
         <v>8</v>
       </c>
       <c r="AM42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN42" t="n">
         <v>13</v>
@@ -6555,13 +6563,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>4.75</v>
       </c>
       <c r="I43" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>1.91</v>
@@ -6576,25 +6584,25 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S43" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U43" t="n">
         <v>2.5</v>
@@ -6618,13 +6626,13 @@
         <v>8</v>
       </c>
       <c r="AB43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE43" t="n">
         <v>11</v>
@@ -6636,7 +6644,7 @@
         <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
         <v>19</v>
@@ -6651,16 +6659,16 @@
         <v>19</v>
       </c>
       <c r="AM43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -7131,10 +7139,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
         <v>5.75</v>
@@ -7149,22 +7157,22 @@
         <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -7175,10 +7183,10 @@
         <v>1.29</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y47" t="n">
         <v>2</v>
@@ -7199,13 +7207,13 @@
         <v>11</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
         <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH47" t="n">
         <v>7.5</v>
@@ -7276,13 +7284,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -7291,7 +7299,7 @@
         <v>1.95</v>
       </c>
       <c r="L48" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -7338,7 +7346,7 @@
         <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="n">
         <v>26</v>
@@ -7365,10 +7373,10 @@
         <v>351</v>
       </c>
       <c r="AL48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN48" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -722,10 +722,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>2.07</v>
@@ -740,7 +740,7 @@
         <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
@@ -752,7 +752,7 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -764,31 +764,31 @@
         <v>41</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>201</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="n">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -861,36 +861,36 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -902,19 +902,19 @@
         <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -929,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>51</v>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>2.3</v>
@@ -990,36 +990,36 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1028,13 +1028,13 @@
         <v>2.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="n">
         <v>15</v>
@@ -1052,22 +1052,22 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1308,7 +1308,7 @@
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
         <v>1.17</v>
@@ -1320,10 +1320,10 @@
         <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y6" t="n">
         <v>2.25</v>
@@ -1332,16 +1332,16 @@
         <v>1.57</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1350,7 +1350,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1368,13 +1368,13 @@
         <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1469,7 +1469,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1532,10 +1532,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1677,10 +1677,10 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2458,10 +2458,10 @@
         <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
@@ -2571,52 +2571,52 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>1.44</v>
@@ -2625,19 +2625,19 @@
         <v>2.63</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
@@ -2649,7 +2649,7 @@
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
         <v>7.5</v>
@@ -2658,10 +2658,10 @@
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK15" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -2720,48 +2720,48 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
         <v>1.4</v>
@@ -2779,7 +2779,7 @@
         <v>10</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
@@ -2788,10 +2788,10 @@
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2812,16 +2812,16 @@
         <v>8.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>26</v>
@@ -3002,22 +3002,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3026,24 +3026,24 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3052,25 +3052,25 @@
         <v>2.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
         <v>9.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -3088,25 +3088,25 @@
         <v>41</v>
       </c>
       <c r="AK18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN18" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>10</v>
-      </c>
       <c r="AO18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>26</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>29</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3969,40 +3969,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>2.03</v>
@@ -4011,10 +4011,10 @@
         <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.36</v>
@@ -4023,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
@@ -4047,13 +4047,13 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
@@ -4062,13 +4062,13 @@
         <v>151</v>
       </c>
       <c r="AL25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
@@ -4410,16 +4410,16 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q28" t="n">
         <v>2.5</v>
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
@@ -4555,16 +4555,16 @@
         <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
         <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
         <v>2.4</v>
@@ -4578,7 +4578,7 @@
         <v>4.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W29" t="n">
         <v>1.53</v>
@@ -4644,10 +4644,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="30">
@@ -4682,28 +4682,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O30" t="n">
         <v>1.14</v>
@@ -4712,46 +4712,46 @@
         <v>5.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R30" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S30" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z30" t="n">
         <v>2</v>
       </c>
-      <c r="U30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -4760,31 +4760,31 @@
         <v>21</v>
       </c>
       <c r="AG30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI30" t="n">
         <v>17</v>
       </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK30" t="n">
         <v>151</v>
       </c>
       <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
         <v>21</v>
       </c>
-      <c r="AM30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>19</v>
-      </c>
       <c r="AO30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP30" t="n">
         <v>41</v>
@@ -4827,22 +4827,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H31" t="n">
         <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4851,46 +4851,46 @@
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
         <v>8.5</v>
@@ -4902,34 +4902,34 @@
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI31" t="n">
         <v>17</v>
       </c>
-      <c r="AH31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL31" t="n">
         <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
         <v>17</v>
       </c>
       <c r="AO31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP31" t="n">
         <v>41</v>
@@ -4972,13 +4972,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
         <v>2.5</v>
@@ -4996,10 +4996,10 @@
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.53</v>
@@ -5008,10 +5008,10 @@
         <v>2.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>2.25</v>
@@ -5041,7 +5041,7 @@
         <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
         <v>13</v>
@@ -5050,10 +5050,10 @@
         <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI32" t="n">
         <v>12</v>
@@ -5065,7 +5065,7 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
         <v>21</v>
@@ -5077,7 +5077,7 @@
         <v>41</v>
       </c>
       <c r="AP32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ32" t="n">
         <v>26</v>
@@ -5117,58 +5117,58 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.75</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K33" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y33" t="n">
         <v>1.53</v>
@@ -5177,25 +5177,25 @@
         <v>2.38</v>
       </c>
       <c r="AA33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC33" t="n">
         <v>12</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AD33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG33" t="n">
         <v>17</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>7.5</v>
@@ -5210,19 +5210,19 @@
         <v>126</v>
       </c>
       <c r="AL33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM33" t="n">
         <v>11</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AN33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP33" t="n">
         <v>13</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>17</v>
       </c>
       <c r="AQ33" t="n">
         <v>21</v>
@@ -5552,28 +5552,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I36" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5582,16 +5582,16 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R36" t="n">
         <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="T36" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U36" t="n">
         <v>3</v>
@@ -5606,10 +5606,10 @@
         <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
@@ -5621,10 +5621,10 @@
         <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
         <v>29</v>
@@ -5645,13 +5645,13 @@
         <v>351</v>
       </c>
       <c r="AL36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO36" t="n">
         <v>81</v>
@@ -5663,10 +5663,10 @@
         <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="37">
@@ -5725,13 +5725,13 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
         <v>1.95</v>
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -5880,10 +5880,10 @@
         <v>4.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5894,16 +5894,16 @@
         <v>1.44</v>
       </c>
       <c r="W38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA38" t="n">
         <v>13</v>
@@ -5912,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
         <v>41</v>
@@ -5924,10 +5924,10 @@
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI38" t="n">
         <v>13</v>
@@ -5939,10 +5939,10 @@
         <v>151</v>
       </c>
       <c r="AL38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN38" t="n">
         <v>8.5</v>
@@ -5951,7 +5951,7 @@
         <v>17</v>
       </c>
       <c r="AP38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ38" t="n">
         <v>21</v>
@@ -5991,22 +5991,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -6015,16 +6015,16 @@
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -6035,10 +6035,10 @@
         <v>1.33</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y39" t="n">
         <v>1.67</v>
@@ -6047,22 +6047,22 @@
         <v>2.1</v>
       </c>
       <c r="AA39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10</v>
-      </c>
       <c r="AD39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="n">
         <v>26</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>29</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -6077,22 +6077,22 @@
         <v>41</v>
       </c>
       <c r="AK39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ39" t="n">
         <v>29</v>
@@ -6176,10 +6176,10 @@
         <v>1.29</v>
       </c>
       <c r="W40" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X40" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y40" t="n">
         <v>1.8</v>
@@ -6380,10 +6380,10 @@
         <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="42">
@@ -6418,28 +6418,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
         <v>1.91</v>
       </c>
       <c r="L42" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -6474,19 +6474,19 @@
         <v>1.62</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC42" t="n">
         <v>10</v>
       </c>
       <c r="AD42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE42" t="n">
         <v>21</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>23</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -6507,19 +6507,19 @@
         <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN42" t="n">
         <v>15</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>13</v>
       </c>
       <c r="AO42" t="n">
         <v>41</v>
       </c>
       <c r="AP42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ42" t="n">
         <v>51</v>
@@ -6572,7 +6572,7 @@
         <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K43" t="n">
         <v>2.5</v>
@@ -6587,28 +6587,28 @@
         <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W43" t="n">
         <v>1.3</v>
@@ -7157,30 +7157,30 @@
         <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
@@ -7284,22 +7284,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -7328,43 +7328,43 @@
         <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X48" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG48" t="n">
         <v>7</v>
       </c>
       <c r="AH48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="n">
         <v>67</v>
@@ -7373,19 +7373,19 @@
         <v>351</v>
       </c>
       <c r="AL48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN48" t="n">
         <v>13</v>
       </c>
-      <c r="AN48" t="n">
-        <v>11</v>
-      </c>
       <c r="AO48" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -722,10 +722,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>2.07</v>
@@ -740,7 +740,7 @@
         <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
         <v>3</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -867,10 +867,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -881,22 +881,22 @@
         <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
@@ -926,7 +926,7 @@
         <v>251</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -938,7 +938,7 @@
         <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
@@ -1016,10 +1016,10 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1123,28 +1123,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1159,7 +1159,7 @@
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
         <v>1.18</v>
@@ -1180,10 +1180,10 @@
         <v>2.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="n">
         <v>8.5</v>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
         <v>15</v>
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1329,22 +1329,22 @@
         <v>2.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1365,16 +1365,16 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
@@ -1469,7 +1469,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1532,10 +1532,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
@@ -1600,18 +1600,18 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1620,19 +1620,19 @@
         <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
         <v>9.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>21</v>
@@ -1641,10 +1641,10 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
@@ -1659,7 +1659,7 @@
         <v>900</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM8" t="n">
         <v>17</v>
@@ -1677,10 +1677,10 @@
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="9">
@@ -1715,54 +1715,54 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="Y9" t="n">
         <v>2.63</v>
@@ -1789,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
@@ -1807,7 +1807,7 @@
         <v>6.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
@@ -2291,13 +2291,13 @@
         <v>2.38</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2315,10 +2315,10 @@
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
         <v>1.33</v>
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
         <v>8</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.5</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
         <v>3.75</v>
@@ -2467,31 +2467,31 @@
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -2500,7 +2500,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>8.5</v>
@@ -2515,7 +2515,7 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
@@ -2530,7 +2530,7 @@
         <v>51</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
         <v>1.85</v>
@@ -2607,10 +2607,10 @@
         <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U15" t="n">
         <v>3.75</v>
@@ -2861,28 +2861,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2891,10 +2891,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2917,13 +2917,13 @@
         <v>1.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
         <v>9.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>19</v>
@@ -2935,25 +2935,25 @@
         <v>34</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
         <v>13</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -3014,16 +3014,16 @@
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.29</v>
@@ -3032,18 +3032,18 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
@@ -3076,7 +3076,7 @@
         <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
         <v>6.5</v>
@@ -3106,7 +3106,7 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -4392,16 +4392,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
@@ -4410,16 +4410,16 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
         <v>2.5</v>
@@ -4433,19 +4433,19 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y28" t="n">
         <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA28" t="n">
         <v>8.5</v>
@@ -4484,7 +4484,7 @@
         <v>6.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
         <v>10</v>
@@ -4499,10 +4499,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -4537,72 +4537,72 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X29" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA29" t="n">
         <v>7.5</v>
       </c>
       <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
         <v>12</v>
       </c>
-      <c r="AC29" t="n">
-        <v>11</v>
-      </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -4617,22 +4617,22 @@
         <v>5.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK29" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>29</v>
@@ -4644,10 +4644,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="30">
@@ -5262,28 +5262,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5312,10 +5312,10 @@
         <v>2.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -5330,13 +5330,13 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH34" t="n">
         <v>6.5</v>
@@ -5351,16 +5351,16 @@
         <v>1250</v>
       </c>
       <c r="AL34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP34" t="n">
         <v>23</v>
@@ -5582,10 +5582,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S36" t="n">
         <v>2.45</v>
@@ -5719,10 +5719,10 @@
         <v>10</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -5731,16 +5731,16 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
         <v>2.55</v>
       </c>
       <c r="T37" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U37" t="n">
         <v>3.25</v>
@@ -5812,10 +5812,10 @@
         <v>81</v>
       </c>
       <c r="AR37" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="38">
@@ -6132,22 +6132,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H40" t="n">
         <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K40" t="n">
         <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -6162,24 +6162,24 @@
         <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X40" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y40" t="n">
         <v>1.8</v>
@@ -6200,7 +6200,7 @@
         <v>17</v>
       </c>
       <c r="AE40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>29</v>
@@ -6227,7 +6227,7 @@
         <v>21</v>
       </c>
       <c r="AN40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO40" t="n">
         <v>41</v>
@@ -7284,28 +7284,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -7314,10 +7314,10 @@
         <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7328,10 +7328,10 @@
         <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y48" t="n">
         <v>2.1</v>
@@ -7343,22 +7343,22 @@
         <v>6</v>
       </c>
       <c r="AB48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC48" t="n">
         <v>9.5</v>
       </c>
       <c r="AD48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE48" t="n">
         <v>19</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
@@ -7373,10 +7373,10 @@
         <v>351</v>
       </c>
       <c r="AL48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
@@ -7391,10 +7391,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -1141,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
         <v>2.25</v>
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
         <v>1.67</v>
@@ -1177,10 +1177,10 @@
         <v>2.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AA5" t="n">
         <v>5</v>
@@ -1222,10 +1222,10 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>
@@ -1272,64 +1272,64 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.17</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
         <v>2.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1338,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>5.5</v>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
@@ -1371,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1424,7 +1424,7 @@
         <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>4.75</v>
@@ -1469,7 +1469,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1532,10 +1532,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -1715,13 +1715,13 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.55</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.6</v>
-      </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1730,25 +1730,25 @@
         <v>1.73</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1.8</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1756,25 +1756,25 @@
         <v>9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
@@ -1783,22 +1783,22 @@
         <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>5.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -1810,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>41</v>
@@ -1819,7 +1819,7 @@
         <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -2422,52 +2422,52 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J14" t="n">
         <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.37</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.26</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
         <v>1.36</v>
@@ -2476,31 +2476,31 @@
         <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
         <v>8.5</v>
@@ -2515,10 +2515,10 @@
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
         <v>21</v>
@@ -2530,7 +2530,7 @@
         <v>51</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>1.85</v>
@@ -2574,7 +2574,7 @@
         <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>5.75</v>
@@ -2583,55 +2583,55 @@
         <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="n">
         <v>1.73</v>
       </c>
-      <c r="S15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
         <v>7</v>
@@ -2643,25 +2643,25 @@
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -2673,10 +2673,10 @@
         <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
@@ -2861,28 +2861,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2911,25 +2911,25 @@
         <v>2.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA17" t="n">
         <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
         <v>9.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -2950,19 +2950,19 @@
         <v>301</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -4410,16 +4410,16 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Q28" t="n">
         <v>2.5</v>
@@ -4433,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
         <v>1.57</v>
@@ -4445,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA28" t="n">
         <v>8.5</v>
@@ -4499,10 +4499,10 @@
         <v>41</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="29">
@@ -4537,48 +4537,48 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
         <v>2.63</v>
       </c>
       <c r="I29" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
         <v>1.91</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W29" t="n">
         <v>1.57</v>
@@ -4590,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA29" t="n">
         <v>7.5</v>
@@ -4605,7 +4605,7 @@
         <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF29" t="n">
         <v>41</v>
@@ -4635,7 +4635,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -4644,10 +4644,10 @@
         <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="30">
@@ -5407,13 +5407,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -5422,7 +5422,7 @@
         <v>1.91</v>
       </c>
       <c r="L35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
@@ -5437,18 +5437,18 @@
         <v>2.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W35" t="n">
         <v>1.57</v>
@@ -5463,13 +5463,13 @@
         <v>1.62</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC35" t="n">
         <v>12</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11</v>
       </c>
       <c r="AD35" t="n">
         <v>29</v>
@@ -5487,37 +5487,37 @@
         <v>6.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
         <v>81</v>
       </c>
       <c r="AK35" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AL35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN35" t="n">
         <v>11</v>
       </c>
       <c r="AO35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="36">
@@ -5701,28 +5701,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L37" t="n">
+        <v>9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
         <v>10</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -5731,10 +5731,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R37" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S37" t="n">
         <v>2.55</v>
@@ -5755,61 +5755,61 @@
         <v>3</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AA37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
         <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ37" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="n">
         <v>101</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR37" t="n">
         <v>1.43</v>
@@ -7290,13 +7290,13 @@
         <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L48" t="n">
         <v>4.5</v>
@@ -7314,10 +7314,10 @@
         <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -7337,7 +7337,7 @@
         <v>2.1</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA48" t="n">
         <v>6</v>
@@ -7349,10 +7349,10 @@
         <v>9.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF48" t="n">
         <v>34</v>
@@ -7391,10 +7391,10 @@
         <v>41</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-10.xlsx
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1290,16 +1290,16 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
         <v>3.1</v>
@@ -1308,19 +1308,19 @@
         <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="U6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
         <v>2.1</v>
@@ -1332,7 +1332,7 @@
         <v>1.53</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB6" t="n">
         <v>11</v>
@@ -1341,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>29</v>
@@ -1350,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
@@ -1469,7 +1469,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
         <v>2.25</v>
@@ -1484,13 +1484,13 @@
         <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1532,10 +1532,10 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8">
@@ -2571,22 +2571,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
         <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2601,49 +2601,49 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA15" t="n">
         <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -2652,10 +2652,10 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>51</v>
@@ -2667,10 +2667,10 @@
         <v>13</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>51</v>
@@ -2679,7 +2679,7 @@
         <v>41</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>1.8</v>
